--- a/02.팀원관리/00.프로젝트평가/2023_상반기/개발사업부_인력 평가_2023_상반기_엘푸드시스템 운영유지보수.xlsx
+++ b/02.팀원관리/00.프로젝트평가/2023_상반기/개발사업부_인력 평가_2023_상반기_엘푸드시스템 운영유지보수.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>프로젝트 평가 세부 정보
 (기간: 2023.01.01~2023.06.30)</t>
@@ -300,6 +300,10 @@
   </si>
   <si>
     <t>2023.01.02 ~ 2023.06.30</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -393,6 +397,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Batang"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1306,15 +1312,99 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1336,92 +1426,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1652,7 +1658,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1682,17 +1688,17 @@
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="79"/>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="88"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1">
       <c r="B3" s="80"/>
@@ -1702,17 +1708,17 @@
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="89" t="s">
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1722,7 +1728,7 @@
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
       <c r="E4" s="85"/>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="62" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1751,19 +1757,19 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="43.2">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="91"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1791,11 +1797,11 @@
     </row>
     <row r="6" spans="1:14" ht="22.5" customHeight="1">
       <c r="A6" s="9"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="92"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="10" t="s">
         <v>27</v>
       </c>
@@ -1820,7 +1826,7 @@
       <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="71" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1831,12 +1837,10 @@
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="15" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G7" s="16"/>
-      <c r="H7" s="16">
-        <v>5</v>
-      </c>
+      <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -1846,7 +1850,7 @@
     </row>
     <row r="8" spans="1:14" ht="79.2">
       <c r="A8" s="19"/>
-      <c r="B8" s="66"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="12" t="s">
         <v>31</v>
       </c>
@@ -1887,7 +1891,7 @@
     </row>
     <row r="9" spans="1:14" ht="52.8">
       <c r="A9" s="19"/>
-      <c r="B9" s="66"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="52" t="s">
         <v>79</v>
       </c>
@@ -1927,7 +1931,7 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="66"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="12"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14"/>
@@ -1943,7 +1947,7 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="66"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="12"/>
       <c r="D11" s="18"/>
       <c r="E11" s="14"/>
@@ -1959,7 +1963,7 @@
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="67"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
@@ -1981,26 +1985,26 @@
       <c r="C14" s="75"/>
       <c r="D14" s="75"/>
       <c r="E14" s="76"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="58"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="93" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="23"/>
@@ -2017,7 +2021,7 @@
       <c r="N16" s="28"/>
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1">
-      <c r="B17" s="66"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="12"/>
       <c r="D17" s="18"/>
       <c r="E17" s="14"/>
@@ -2033,7 +2037,7 @@
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1">
       <c r="A18" s="19"/>
-      <c r="B18" s="66"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="12"/>
       <c r="D18" s="18"/>
       <c r="E18" s="14"/>
@@ -2049,7 +2053,7 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1">
       <c r="A19" s="19"/>
-      <c r="B19" s="66"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="12"/>
       <c r="D19" s="18"/>
       <c r="E19" s="14"/>
@@ -2065,7 +2069,7 @@
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1">
       <c r="A20" s="19"/>
-      <c r="B20" s="66"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="12"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14"/>
@@ -2080,7 +2084,7 @@
       <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1">
-      <c r="B21" s="67"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
@@ -2095,15 +2099,15 @@
       <c r="N21" s="31"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1">
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="94" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="32"/>
@@ -2120,7 +2124,7 @@
       <c r="N23" s="35"/>
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1">
-      <c r="B24" s="66"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="12"/>
       <c r="D24" s="18"/>
       <c r="E24" s="14"/>
@@ -2136,7 +2140,7 @@
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1">
       <c r="A25" s="19"/>
-      <c r="B25" s="66"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="12"/>
       <c r="D25" s="18"/>
       <c r="E25" s="14"/>
@@ -2152,7 +2156,7 @@
     </row>
     <row r="26" spans="1:14" ht="16.5" customHeight="1">
       <c r="A26" s="19"/>
-      <c r="B26" s="66"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="12"/>
       <c r="D26" s="18"/>
       <c r="E26" s="14"/>
@@ -2167,7 +2171,7 @@
       <c r="N26" s="36"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1">
-      <c r="B27" s="66"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="12"/>
       <c r="D27" s="18"/>
       <c r="E27" s="14"/>
@@ -2182,7 +2186,7 @@
       <c r="N27" s="36"/>
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1">
-      <c r="B28" s="67"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
       <c r="E28" s="22"/>
@@ -3169,6 +3173,14 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="B15:E15"/>
     <mergeCell ref="F2:N2"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:M3"/>
@@ -3177,14 +3189,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:E4"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B23:B28"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
@@ -4489,10 +4493,10 @@
       <c r="B1" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="95" t="s">
         <v>72</v>
       </c>
@@ -4517,7 +4521,7 @@
       <c r="G2" s="96"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="70"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="43">
         <v>0.05</v>
       </c>
@@ -4533,7 +4537,7 @@
       <c r="F3" s="43">
         <v>0.1</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1">
       <c r="A4" s="44">
